--- a/Data/EC/NIT-8904814377.xlsx
+++ b/Data/EC/NIT-8904814377.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C709493D-5D54-4C9E-BFEC-AFAC1FFA27E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBC0D05-0E7E-40EA-9751-FE3E76512810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{266B51C1-ACB7-4359-9CB2-8B8FA0925579}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E452C0C3-E562-4FA0-88CA-4902B7A6DAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="101">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,238 +71,241 @@
     <t>ARIEL ENRIQUE PEREIRA PEREIRA</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>1047480096</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MANUEL HERRERA VILLERO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1047480096</t>
-  </si>
-  <si>
-    <t>ALEJANDRO MANUEL HERRERA VILLERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -401,7 +404,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -414,9 +419,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -616,23 +619,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,10 +663,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71DBC3B-BFF9-E31B-78AE-0E9444676F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861E0720-3522-DF65-1658-F7FEDC3D7791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1067,8 +1070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF610611-3F6F-4690-80C6-2170A867F018}">
-  <dimension ref="B2:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E60E6-4160-49C6-A7DE-A18E116C30CE}">
+  <dimension ref="B2:J99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1092,7 +1095,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1137,7 +1140,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1169,12 +1172,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2530825</v>
+        <v>2563950</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1185,17 +1188,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1222,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1811,19 +1814,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>13325</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1840,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1863,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1886,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1909,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1932,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1955,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1978,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2001,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2024,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2047,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2070,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2093,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2116,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2139,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2162,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2185,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2208,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2231,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2254,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2277,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2300,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2323,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2346,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2369,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2392,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2415,7 +2418,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2438,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2461,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2484,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2507,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2530,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2553,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2576,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2599,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2622,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2645,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2668,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2691,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2714,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2737,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2760,7 +2763,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2783,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2806,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2829,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2852,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2875,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2898,7 +2901,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2921,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2944,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2967,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -2980,42 +2983,54 @@
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F92" s="24">
-        <v>13325</v>
-      </c>
-      <c r="G92" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="H97" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="F92" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G92" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G93" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="32"/>
       <c r="H98" s="1" t="s">
@@ -3024,12 +3039,23 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="H99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="H99:J99"/>
     <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H97:J97"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
